--- a/data/trans_bre/P12B1_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>120,03%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-46,37%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>247,46%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 48,46</t>
+          <t>-5,63; 15,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 39,11</t>
+          <t>-4,39; 16,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 43,93</t>
+          <t>-16,52; 6,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 169,58</t>
+          <t>-2,71; 44,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 92,64</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,96; 129,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,7</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,96</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>102,32%</t>
+          <t>-52,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-33,73%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 49,5</t>
+          <t>-7,43; 1,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 63,24</t>
+          <t>-3,0; 3,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 58,11</t>
+          <t>-5,03; 2,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,01; 205,97</t>
+          <t>-4,84; 5,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 502,93</t>
+          <t>-89,19; 62,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 352,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-80,44; 176,46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-71,64; 253,45</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,81</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,45</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>122,9%</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,98%</t>
+          <t>109,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>-57,44%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-12,1%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>249,28%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 68,38</t>
+          <t>-1,58; 5,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-47,52; 39,85</t>
+          <t>-6,77; 1,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 50,43</t>
+          <t>-5,34; 3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 870,73</t>
+          <t>-0,25; 7,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 147,06</t>
+          <t>-89,97; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 233,85</t>
+          <t>-100,0; 186,46</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-83,18; 236,49</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-61,45; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 44,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 42,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 117,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 184,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 160,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-2,16%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-29,02%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>99,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 2,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 2,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 1,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 11,25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-57,15; 135,26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-62,16; 135,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-70,58; 43,34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; 492,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12B1_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,61</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,59</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>98,35%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>120,03%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-46,37%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>247,46%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.541646309653101</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.202937397609064</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-4.127228716049261</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.83741992680398</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.8067753012446534</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.617190357711263</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.542995189480127</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.317150222257108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,63; 15,48</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 16,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,52; 6,43</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,71; 44,75</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.71186844258089</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.771954259532182</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.41983275214683</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.94212861065401</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.35907430289616</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.95874600225905</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.787336928083046</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>39.13093308120861</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-52,61%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,51%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-33,73%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 1,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 3,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 2,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 5,48</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-89,19; 62,27</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-80,44; 176,46</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-71,64; 253,45</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.135290747696591</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4169907428344489</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.247274742662259</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.08067359255948744</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.4800049803581363</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2216161920904028</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.332177700133207</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.01804833073859564</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>109,94%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-57,44%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-12,1%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>249,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.31292834878229</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.564477445977729</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.900092806329569</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.469290099858179</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.880808639627108</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.8132636608259604</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7156404125233186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 5,01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,77; 1,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 3,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 7,26</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-89,97; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 186,46</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-83,18; 236,49</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-61,45; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.466111049984888</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.472887705371595</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.084769480251091</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.198190841112242</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.8814921973558338</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.652449573058879</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.730720990219381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +809,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.458143816751955</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.283954687637328</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3739249901146491</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.048445343410334</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.20459566066877</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5803847565038521</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.09444089563748598</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.455568992960224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.28608805376881</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.550211240289176</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.088669755446549</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.177444998052368</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.9098117766503597</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8097433039604901</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6094860257701137</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.540316683310882</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.064556028505837</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.699039415058432</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.064309990010765</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.659529971555086</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.561927977474665</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,16%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-2,79%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-29,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>99,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 2,56</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 2,17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 1,15</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 11,25</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-57,15; 135,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-62,16; 135,62</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-70,58; 43,34</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-21,03; 492,7</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.02655593051227728</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2459540525097538</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.286962085708756</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.441543927837216</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.008314646555365787</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.08506203127477847</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2951753954276393</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9876031329733255</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.410395682317144</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.168610606651675</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.492262174376683</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4452508431814826</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.5583535220009042</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5647470988706216</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7196491174986616</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2086831216310459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.462195349659728</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.748957205325097</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.032343333611572</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.716122920341492</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.421489324666154</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.727564894311741</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3541266925519981</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>4.495671201792926</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
